--- a/input/trade_ideas_edit.xlsx
+++ b/input/trade_ideas_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biagio\Dev\excel-to-json\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{327ABE1F-B5CE-4183-A045-54C88240F7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62057F8-5528-4208-957C-4038DABABB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="1950" windowWidth="38700" windowHeight="15345" xr2:uid="{D6210F9A-9789-46F8-952D-D27373842549}"/>
+    <workbookView xWindow="8115" yWindow="3525" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{D6210F9A-9789-46F8-952D-D27373842549}"/>
   </bookViews>
   <sheets>
     <sheet name="ChemsLowBeta" sheetId="8" r:id="rId1"/>
@@ -366,7 +366,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="#,##0&quot; &quot;;[Red]&quot;-&quot;#,##0&quot; &quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0&quot; &quot;;[Red]&quot;-&quot;#,##0&quot; &quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -503,18 +503,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,12 +527,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -858,192 +848,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41038545-B45C-4B3D-9A6D-4DCE12C890B3}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>258.12672205411025</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>267.01927705550116</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>290.8524651935781</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>297.92593742223903</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>-30.906660366737867</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>-32.725743139467852</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>-1.8190827727299848</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>353.24793967388939</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>354.09731420401738</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>290.8524651935781</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>297.92593742223903</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>56.171376781778349</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>62.395474480311293</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>6.2240976985329439</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>161.11190337710059</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>165.21669046343854</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>290.8524651935781</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>297.92593742223903</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>-132.70924695880049</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>-129.74056181647751</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>2.9686851423229825</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>339.14903632116625</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>347.13959333691122</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>290.8524651935781</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>297.92593742223903</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>49.213655914672188</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>48.296571127588152</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>-0.91708478708403618</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1060,294 +1050,294 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>156.52045687004303</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>158.64367294599592</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>286.48329292261809</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>289.4281459263342</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>-130.78447298033828</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>-129.96283605257506</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>0.8216369277632225</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>324.09184711603359</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>327.69337212953167</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>286.48329292261809</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>289.4281459263342</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>38.265226203197471</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>37.6085541934155</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>-0.65667200978197116</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>175.21611235468262</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>177.92249021189966</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>286.48329292261809</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>289.4281459263342</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>-111.50565571443454</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>-111.26718056793547</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>0.23847514649906998</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>205.59394398600389</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>209.49624228500471</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>286.48329292261809</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>289.4281459263342</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>-79.931903641329484</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>-80.889348936614198</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>-0.95744529528471389</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>395.68567853444421</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>400.97023411799455</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>286.48329292261809</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>289.4281459263342</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>111.54208819166035</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>109.20238561182612</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>-2.3397025798342383</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>330.2944219207177</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>335.52913330868904</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>286.48329292261809</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>289.4281459263342</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>46.100987382354845</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>43.811128998099605</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>-2.2898583842552398</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>297.10336958988927</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>301.57948267064995</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>286.48329292261809</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>289.4281459263342</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>12.151336744315756</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>10.620076667271178</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>-1.5312600770445783</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1358,156 +1348,156 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6836B8B-7BDD-4234-AF83-BFA9C77671B7}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>173.03841672785461</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>178.63895040030764</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
+        <v>287.95147474622598</v>
+      </c>
+      <c r="F2" s="2">
+        <v>292.00576309653292</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-113.36681269622528</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-114.91305801837166</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-1.5462453221463761</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2">
+        <v>350.45274402879647</v>
+      </c>
+      <c r="D3" s="2">
+        <v>362.40258505383503</v>
+      </c>
+      <c r="E3" s="2">
         <v>287.95147474622627</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F3" s="2">
         <v>292.00576309653292</v>
       </c>
-      <c r="G2" s="6">
-        <v>-113.36681269622528</v>
-      </c>
-      <c r="H2" s="6">
-        <v>-114.91305801837166</v>
-      </c>
-      <c r="I2" s="5">
-        <v>-1.5462453221463761</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4">
-        <v>350.45274402879647</v>
-      </c>
-      <c r="D3" s="4">
-        <v>362.40258505383503</v>
-      </c>
-      <c r="E3" s="4">
-        <v>287.95147474622627</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
+        <v>70.396821957302109</v>
+      </c>
+      <c r="H3" s="4">
+        <v>62.501269282570206</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-7.8955526747319027</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2">
+        <v>232.7321919356053</v>
+      </c>
+      <c r="D4" s="2">
+        <v>235.99088781849088</v>
+      </c>
+      <c r="E4" s="2">
+        <v>287.95147474622598</v>
+      </c>
+      <c r="F4" s="2">
         <v>292.00576309653292</v>
       </c>
-      <c r="G3" s="6">
-        <v>70.396821957302109</v>
-      </c>
-      <c r="H3" s="6">
-        <v>62.501269282570206</v>
-      </c>
-      <c r="I3" s="5">
-        <v>-7.8955526747319027</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4">
-        <v>232.7321919356053</v>
-      </c>
-      <c r="D4" s="4">
-        <v>235.99088781849088</v>
-      </c>
-      <c r="E4" s="4">
-        <v>287.95147474622627</v>
-      </c>
-      <c r="F4" s="4">
-        <v>292.00576309653292</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>-56.014875278042041</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>-55.219282810620967</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>0.79559246742107348</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1524,402 +1514,402 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>307.58074580147081</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>312.3819250316551</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>290.20174658521398</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>294.04166455496431</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>18.340260476690787</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>17.37899921625683</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>-0.96126126043395743</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>123.77184938082326</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>123.62517790295526</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>290.20174658521398</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>294.04166455496431</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>-170.41648665200904</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>-166.42989720439073</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>3.9865894476183144</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>513.46160198982636</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>502.83386018999732</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>290.20174658521398</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>294.04166455496431</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>208.79219563503301</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>223.25985540461238</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>14.46765976957937</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>491.64370292838464</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>498.65018403598276</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>290.20174658521398</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>294.04166455496431</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>204.60851948101845</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>201.44195634317066</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>-3.1665631378477883</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>472.43049864138749</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>475.93436987945063</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>290.20174658521398</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>294.04166455496431</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>181.89270532448631</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>182.22875205617351</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.33604673168719046</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>268.80991474270775</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>272.89385204029838</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>290.20174658521398</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>294.04166455496431</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>-21.147812514665929</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>-21.391831842506235</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>-0.24401932784030578</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>375.26872414320957</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>378.10193661645286</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>290.20174658521398</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>294.04166455496431</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>84.060272061488547</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>85.066977557995585</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>1.0067054965070383</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>307.80497129074729</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>313.53243510160837</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>290.20174658521398</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>294.04166455496431</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>19.490770546644058</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>17.603224705533307</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>-1.8875458411107502</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>466.06234265011983</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>483.08918019595899</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>290.20174658521398</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>294.04166455496431</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>189.04751564099467</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>175.86059606490585</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>-13.186919576088826</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>40.345560795424348</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>48.856133735267534</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>290.20174658521398</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>294.04166455496431</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>-245.18553081969679</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>-249.85618578978963</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>-4.6706549700928406</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1936,150 +1926,150 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>418.41017502965877</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>423.56587777047656</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>294.19178035578983</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>298.5880777682242</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>124.97780000225237</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>124.21839467386894</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>-0.75940532838342278</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>381.85053422592949</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>393.50648603994421</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>294.19178035578983</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>298.5880777682242</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>94.918408271720011</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>87.658753870139662</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>-7.2596544015803488</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>405.45815061507511</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>410.55646755065584</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>294.19178035578983</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>298.5880777682242</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>111.96838978243164</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>111.26637025928528</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>-0.70201952314636173</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2088,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B638A3C-AEE9-4AF6-8459-233089739C3E}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A2" sqref="A2:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,508 +2094,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="12"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="15"/>
+      <c r="A2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2">
+        <v>381.85053422592949</v>
+      </c>
+      <c r="D2" s="2">
+        <v>393.50648603994421</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2">
+        <v>356.39783037728</v>
+      </c>
+      <c r="H2" s="2">
+        <v>365.36168843604162</v>
+      </c>
+      <c r="I2" s="4">
+        <v>28.144797603902589</v>
+      </c>
+      <c r="J2" s="4">
+        <v>25.452703848649492</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-2.6920937552530972</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="4">
-        <v>381.85053422592949</v>
-      </c>
-      <c r="D3" s="4">
-        <v>393.50648603994421</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="4">
-        <v>356.39783037728</v>
-      </c>
-      <c r="H3" s="4">
-        <v>365.36168843604162</v>
-      </c>
-      <c r="I3" s="6">
-        <v>28.144797603902589</v>
-      </c>
-      <c r="J3" s="6">
-        <v>25.452703848649492</v>
-      </c>
-      <c r="K3" s="5">
-        <v>-2.6920937552530972</v>
-      </c>
-      <c r="L3" s="15" t="s">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>339.14903632116625</v>
+      </c>
+      <c r="D3" s="2">
+        <v>347.13959333691122</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="2">
+        <v>197.20742945119713</v>
+      </c>
+      <c r="H3" s="2">
+        <v>204.23966475300287</v>
+      </c>
+      <c r="I3" s="4">
+        <v>142.89992858390835</v>
+      </c>
+      <c r="J3" s="4">
+        <v>141.94160686996912</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-0.95832171393922749</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2">
+        <v>514.36526543680509</v>
+      </c>
+      <c r="D4" s="2">
+        <v>518.413370000437</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2">
+        <v>491.64370292838464</v>
+      </c>
+      <c r="H4" s="2">
+        <v>498.65018403598276</v>
+      </c>
+      <c r="I4" s="4">
+        <v>19.763185964454237</v>
+      </c>
+      <c r="J4" s="4">
+        <v>22.721562508420448</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2.9583765439662102</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2">
+        <v>282.44039730267997</v>
+      </c>
+      <c r="D5" s="2">
+        <v>286.6678834066372</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2">
+        <v>307.58074580147081</v>
+      </c>
+      <c r="H5" s="2">
+        <v>312.3819250316551</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-25.714041625017899</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-25.140348498790843</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.57369312622705593</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2">
+        <v>268.80991474270775</v>
+      </c>
+      <c r="D6" s="2">
+        <v>272.89385204029838</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="2">
+        <v>218.50543310324699</v>
+      </c>
+      <c r="H6" s="2">
+        <v>219.74521944564341</v>
+      </c>
+      <c r="I6" s="4">
+        <v>53.14863259465497</v>
+      </c>
+      <c r="J6" s="4">
+        <v>50.304481639460761</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-2.844150955194209</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2">
+        <v>307.80497129074729</v>
+      </c>
+      <c r="D7" s="2">
+        <v>313.53243510160837</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="2">
+        <v>254.56162918547088</v>
+      </c>
+      <c r="H7" s="2">
+        <v>259.87284856788716</v>
+      </c>
+      <c r="I7" s="4">
+        <v>53.65958653372121</v>
+      </c>
+      <c r="J7" s="4">
+        <v>53.243342105276412</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-0.41624442844479859</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="2">
+        <v>266.37802369221959</v>
+      </c>
+      <c r="D8" s="2">
+        <v>270.94167964408069</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2">
+        <v>173.03841672785461</v>
+      </c>
+      <c r="H8" s="2">
+        <v>178.63895040030764</v>
+      </c>
+      <c r="I8" s="4">
+        <v>92.302729243773058</v>
+      </c>
+      <c r="J8" s="4">
+        <v>93.339606964364975</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.0368777205919173</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2">
+        <v>395.68567853444421</v>
+      </c>
+      <c r="D9" s="2">
+        <v>400.97023411799455</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="2">
+        <v>348.90676397706761</v>
+      </c>
+      <c r="H9" s="2">
+        <v>353.20176455130326</v>
+      </c>
+      <c r="I9" s="4">
+        <v>47.768469566691294</v>
+      </c>
+      <c r="J9" s="4">
+        <v>46.778914557376595</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-0.98955500931469942</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2">
+        <v>297.10336958988927</v>
+      </c>
+      <c r="D10" s="2">
+        <v>301.57948267064995</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="2">
+        <v>259.16447429663071</v>
+      </c>
+      <c r="H10" s="2">
+        <v>262.03990464090839</v>
+      </c>
+      <c r="I10" s="4">
+        <v>39.539578029741563</v>
+      </c>
+      <c r="J10" s="4">
+        <v>37.938895293258554</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-1.6006827364830087</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>324.09184711603359</v>
+      </c>
+      <c r="D11" s="2">
+        <v>327.69337212953167</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="2">
+        <v>259.16447429663071</v>
+      </c>
+      <c r="H11" s="2">
+        <v>262.03990464090839</v>
+      </c>
+      <c r="I11" s="4">
+        <v>65.653467488623278</v>
+      </c>
+      <c r="J11" s="4">
+        <v>64.927372819402876</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-0.72609466922040156</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2">
+        <v>205.59394398600389</v>
+      </c>
+      <c r="D12" s="2">
+        <v>209.49624228500471</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="2">
+        <v>292.3105124244733</v>
+      </c>
+      <c r="H12" s="2">
+        <v>297.72953071911127</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-88.233288434106555</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-86.716568438469409</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.5167199956371462</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C13" s="2">
         <v>339.14903632116625</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D13" s="2">
         <v>347.13959333691122</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G13" s="2">
         <v>197.20742945119713</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H13" s="2">
         <v>204.23966475300287</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I13" s="4">
         <v>142.89992858390835</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J13" s="4">
         <v>141.94160686996912</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K13" s="3">
         <v>-0.95832171393922749</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="4">
-        <v>514.36526543680509</v>
-      </c>
-      <c r="D5" s="4">
-        <v>518.413370000437</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="4">
-        <v>491.64370292838464</v>
-      </c>
-      <c r="H5" s="4">
-        <v>498.65018403598276</v>
-      </c>
-      <c r="I5" s="6">
-        <v>19.763185964454237</v>
-      </c>
-      <c r="J5" s="6">
-        <v>22.721562508420448</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2.9583765439662102</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="4">
-        <v>282.44039730267997</v>
-      </c>
-      <c r="D6" s="4">
-        <v>286.6678834066372</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="4">
-        <v>307.58074580147081</v>
-      </c>
-      <c r="H6" s="4">
-        <v>312.3819250316551</v>
-      </c>
-      <c r="I6" s="6">
-        <v>-25.714041625017899</v>
-      </c>
-      <c r="J6" s="6">
-        <v>-25.140348498790843</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.57369312622705593</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="4">
-        <v>268.80991474270775</v>
-      </c>
-      <c r="D7" s="4">
-        <v>272.89385204029838</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="4">
-        <v>218.50543310324699</v>
-      </c>
-      <c r="H7" s="4">
-        <v>219.74521944564341</v>
-      </c>
-      <c r="I7" s="6">
-        <v>53.14863259465497</v>
-      </c>
-      <c r="J7" s="6">
-        <v>50.304481639460761</v>
-      </c>
-      <c r="K7" s="5">
-        <v>-2.844150955194209</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="4">
-        <v>307.80497129074729</v>
-      </c>
-      <c r="D8" s="4">
-        <v>313.53243510160837</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="4">
-        <v>254.56162918547088</v>
-      </c>
-      <c r="H8" s="4">
-        <v>259.87284856788716</v>
-      </c>
-      <c r="I8" s="6">
-        <v>53.65958653372121</v>
-      </c>
-      <c r="J8" s="6">
-        <v>53.243342105276412</v>
-      </c>
-      <c r="K8" s="5">
-        <v>-0.41624442844479859</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="4">
-        <v>266.37802369221959</v>
-      </c>
-      <c r="D9" s="4">
-        <v>270.94167964408069</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="4">
-        <v>173.03841672785461</v>
-      </c>
-      <c r="H9" s="4">
-        <v>178.63895040030764</v>
-      </c>
-      <c r="I9" s="6">
-        <v>92.302729243773058</v>
-      </c>
-      <c r="J9" s="6">
-        <v>93.339606964364975</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1.0368777205919173</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4">
-        <v>395.68567853444421</v>
-      </c>
-      <c r="D10" s="4">
-        <v>400.97023411799455</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="4">
-        <v>348.90676397706761</v>
-      </c>
-      <c r="H10" s="4">
-        <v>353.20176455130326</v>
-      </c>
-      <c r="I10" s="6">
-        <v>47.768469566691294</v>
-      </c>
-      <c r="J10" s="6">
-        <v>46.778914557376595</v>
-      </c>
-      <c r="K10" s="5">
-        <v>-0.98955500931469942</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4">
-        <v>297.10336958988927</v>
-      </c>
-      <c r="D11" s="4">
-        <v>301.57948267064995</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="4">
-        <v>259.16447429663071</v>
-      </c>
-      <c r="H11" s="4">
-        <v>262.03990464090839</v>
-      </c>
-      <c r="I11" s="6">
-        <v>39.539578029741563</v>
-      </c>
-      <c r="J11" s="6">
-        <v>37.938895293258554</v>
-      </c>
-      <c r="K11" s="5">
-        <v>-1.6006827364830087</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4">
-        <v>324.09184711603359</v>
-      </c>
-      <c r="D12" s="4">
-        <v>327.69337212953167</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="4">
-        <v>259.16447429663071</v>
-      </c>
-      <c r="H12" s="4">
-        <v>262.03990464090839</v>
-      </c>
-      <c r="I12" s="6">
-        <v>65.653467488623278</v>
-      </c>
-      <c r="J12" s="6">
-        <v>64.927372819402876</v>
-      </c>
-      <c r="K12" s="5">
-        <v>-0.72609466922040156</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4">
-        <v>205.59394398600389</v>
-      </c>
-      <c r="D13" s="4">
-        <v>209.49624228500471</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="4">
-        <v>292.3105124244733</v>
-      </c>
-      <c r="H13" s="4">
-        <v>297.72953071911127</v>
-      </c>
-      <c r="I13" s="6">
-        <v>-88.233288434106555</v>
-      </c>
-      <c r="J13" s="6">
-        <v>-86.716568438469409</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1.5167199956371462</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4">
-        <v>339.14903632116625</v>
-      </c>
-      <c r="D14" s="4">
-        <v>347.13959333691122</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="4">
-        <v>197.20742945119713</v>
-      </c>
-      <c r="H14" s="4">
-        <v>204.23966475300287</v>
-      </c>
-      <c r="I14" s="6">
-        <v>142.89992858390835</v>
-      </c>
-      <c r="J14" s="6">
-        <v>141.94160686996912</v>
-      </c>
-      <c r="K14" s="5">
-        <v>-0.95832171393922749</v>
-      </c>
-      <c r="L14" s="15" t="s">
+      <c r="L13" s="11" t="s">
         <v>83</v>
       </c>
     </row>
